--- a/output/serdar.xlsx
+++ b/output/serdar.xlsx
@@ -1065,11 +1065,7 @@
           <t>M0,S1,S2,S3</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126VEC,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126SUL,B126WUR,B126KLS,B126RUB,B126D14,B126MUM,B126JAB,B126BOL,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126AES,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126KEK,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126BIM,B126CIO,B126EIP,B126BM6,B126BEA,B126JUR,B126BM4,B126VIS,B126SS2,B126SLE,B126NOR,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126ROF,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126MC1,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126MS3,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126BRD,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126AS1,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126BRC,B126AM1,B126CAC,B126FLD,B126CIM,B126KAJ,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1199,11 +1195,7 @@
           <t>S1,S2,S3</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1463,11 +1455,7 @@
           <t>M0,S1,S2,S3,S4</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1716,7 +1704,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1721,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1738,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1755,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1772,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1789,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1806,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1823,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1840,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1857,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1874,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1904,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1921,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1938,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1955,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1972,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -2001,7 +1989,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2201,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2218,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2235,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2252,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2295,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>B126SMP,B126LOG,B126MAS,B126IMD,B126FRC,B126HNA,B126GRG</t>
+          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
         </is>
       </c>
     </row>
@@ -2686,11 +2674,7 @@
           <t>M0,S1,S2</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2768,11 +2752,7 @@
           <t>S1,S2,S3,S4</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>B126BRC,B126BOL,B126SUL,B126ROF,B126VEC,B126BIM,B126NOR,B126KAJ,B126BM4,B126BRD,B126MS3,B126KLS,B126AS1,B126AES,B126MC1,B126BM6,B126KEK</t>
-        </is>
-      </c>
+      <c r="C173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3006,11 +2986,7 @@
           <t>M0,S1,S2,S3,S4</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4273,7 +4249,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>B126VOK,B126GUM,B126JAG,B126PAF,B126BC1,B126ISM,B126SIS,B126MA7,B126CHR,B126PAS,B126CHK,B126AMA,B126GRS</t>
+          <t>B126AMA,B126BC1,B126GUM,B126CHR,B126PAF,B126GRS,B126PAS,B126VOK,B126SIS,B126CHK,B126JAG,B126MA7,B126ISM</t>
         </is>
       </c>
     </row>
@@ -4340,11 +4316,7 @@
           <t>S1,S2,S3</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -4643,11 +4615,7 @@
           <t>S1,S2,S3</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4751,11 +4719,7 @@
           <t>S1,S2,S3</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4950,11 +4914,7 @@
           <t>S1,S2,S3</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>B126MOD,B126MA1,B126AEA,B126CHB,B126ELC,B126MM1,B126GG1,B126BUD,B126HJ2,B126GRD,B126WUR,B126RUB,B126D14,B126MUM,B126JAB,B126FU1,B126ENW,B126MED,B126BID,B126BOT,B126HUD,B126PUE,B126GIL,B126MOP,B126GRC,B126SAR,B126D10,B126BAA,B126HA2,B126MEA,B126SP2,B126FRF,B126MEJ,B126BRA,B126BAR,B126RS1,B126SUS,B126MR3,B126WM4,B126SCP,B126LEB,B126BOU,B126KRU,B126BRU,B126HIT,B126SND,B126AED,B126D13,B126BE1,B126CIO,B126EIP,B126BEA,B126JUR,B126VIS,B126SS2,B126SLE,B126RM5,B126SAS,B126MA5,B126SEM,B126MM4,B126MUP,B126CC2,B126D11,B126SP3,B126D12,B126ROS,B126ARM,B126MAI,B126LAM,B126WAF,B126DEG,B126EGC,B126GRH,B126GS1,B126KLP,B126SIA,B126FIR,B126D17,B126HUC,B126TSR,B126PFO,B126LB1,B126BEF,B126SPG,B126RE1,B126DJI,B126HOY,B126SM6,B126KAA,B126KEP,B126VEM,B126SIR,B126KS2,B126KS1,B126DUB,B126DIS,B126LIE,B126D21,B126MM2,B126BU1,B126WIF,B126OTR,B126WAL,B126KUG,B126KW2,B126BIJ,B126OSR,B126HM1,B126SUB,B126GRT,B126MOJ,B126COE,B126DAV,B126BEM,B126CHC,B126MM6,B126PIS,B126BER,B126LAP,B126HID,B126SRE,B126SEP,B126BED,B126MAD,B126HP1,B126RUR,B126BM3,B126AEH,B126BAB,B126TRP,B126WH1,B126LOM,B126AM1,B126CAC,B126FLD,B126CIM,B126DIA,B126BAI,B126INR,B126HEM,B126DOL,B126BLK,B126NUS</t>
-        </is>
-      </c>
+      <c r="C339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">

--- a/output/serdar.xlsx
+++ b/output/serdar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C346"/>
+  <dimension ref="A1:C347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>B126IMD,B126LOG,B126GRG,B126HNA,B126SMP,B126MAS,B126FRC</t>
+          <t>B126FRC,B126GRG,B126MAS,B126IMD,B126SMP,B126LOG,B126HNA</t>
         </is>
       </c>
     </row>
@@ -4249,32 +4249,28 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>B126AMA,B126BC1,B126GUM,B126CHR,B126PAF,B126GRS,B126PAS,B126VOK,B126SIS,B126CHK,B126JAG,B126MA7,B126ISM</t>
+          <t>B126CHK,B126GRS,B126GUM,B126VOK,B126PAF,B126MA7,B126CHR,B126PAS,B126AMA,B126BC1,B126JAG,B126SIS,B126ISM</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PSTVA4629</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>M0,S1,S2,S3,S4</t>
-        </is>
-      </c>
+          <t>PSTVA3159</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PSTVA4630</t>
+          <t>PSTVA4629</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>M0,S1,S2,S3,S4</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -4282,7 +4278,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>PSTVA4632</t>
+          <t>PSTVA4630</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4295,7 +4291,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PSTVA4666</t>
+          <t>PSTVA4632</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4308,12 +4304,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PSTVA4670</t>
+          <t>PSTVA4666</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>S1,S2,S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -4321,12 +4317,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PSTVA4675</t>
+          <t>PSTVA4670</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1,S2,S3</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -4334,12 +4330,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PSTVA4680</t>
+          <t>PSTVA4675</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>M0,S1,S2</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -4347,7 +4343,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PSTVA4681</t>
+          <t>PSTVA4680</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4360,7 +4356,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PSTVA4730</t>
+          <t>PSTVA4681</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4373,7 +4369,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PSTVA4731</t>
+          <t>PSTVA4730</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4386,12 +4382,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PSTVA4732</t>
+          <t>PSTVA4731</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>M0,S1,S2,S3,S4</t>
+          <t>M0,S1,S2</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -4399,12 +4395,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PSTVA4733</t>
+          <t>PSTVA4732</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>M0,S1,S2</t>
+          <t>M0,S1,S2,S3,S4</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -4412,7 +4408,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PSTVA4740</t>
+          <t>PSTVA4733</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4425,7 +4421,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>PSTVA4741</t>
+          <t>PSTVA4740</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4438,7 +4434,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PSTVA4770</t>
+          <t>PSTVA4741</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4451,12 +4447,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PSTVA4783</t>
+          <t>PSTVA4770</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>M0,S1,S2</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -4464,12 +4460,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PSTVA5670</t>
+          <t>PSTVA4783</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>S1,S2,S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -4477,12 +4473,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PSTVA5671</t>
+          <t>PSTVA5670</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1,S2,S3</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -4490,12 +4486,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PSTVA5729</t>
+          <t>PSTVA5671</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>S1,S2,S3,S4</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -4503,12 +4499,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PSTVA5730</t>
+          <t>PSTVA5729</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>M0,S1,S2</t>
+          <t>S1,S2,S3,S4</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -4516,7 +4512,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PSTVA5731</t>
+          <t>PSTVA5730</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4529,7 +4525,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PSTVA5732</t>
+          <t>PSTVA5731</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4542,12 +4538,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>PSTVA5733</t>
+          <t>PSTVA5732</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>M0,S1,S2</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -4555,7 +4551,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PSTVA5770</t>
+          <t>PSTVA5733</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4568,12 +4564,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PSTVA6630</t>
+          <t>PSTVA5770</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -4581,7 +4577,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PSTVA6631</t>
+          <t>PSTVA6630</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4594,12 +4590,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PSTVA6666</t>
+          <t>PSTVA6631</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -4607,12 +4603,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PSTVA6670</t>
+          <t>PSTVA6666</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>S1,S2,S3</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -4620,12 +4616,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PSTVA6675</t>
+          <t>PSTVA6670</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1,S2,S3</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -4633,12 +4629,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>PSTVA6729</t>
+          <t>PSTVA6675</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>S1,S2,S3,S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -4646,12 +4642,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>PSTVA7601</t>
+          <t>PSTVA6729</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1,S2,S3,S4</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -4659,12 +4655,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PSTVA8630</t>
+          <t>PSTVA7601</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -4672,7 +4668,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PSTVA8631</t>
+          <t>PSTVA8630</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4685,7 +4681,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>PSTVA8632</t>
+          <t>PSTVA8631</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4698,12 +4694,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PSTVA8666</t>
+          <t>PSTVA8632</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -4711,12 +4707,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PSTVA8670</t>
+          <t>PSTVA8666</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>S1,S2,S3</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -4724,12 +4720,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>PSTVA8675</t>
+          <t>PSTVA8670</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1,S2,S3</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -4737,12 +4733,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PSTVA8680</t>
+          <t>PSTVA8675</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -4750,12 +4746,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PSTVA8729</t>
+          <t>PSTVA8680</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>S1,S2,S3,S4</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -4763,12 +4759,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>PSTVA8730</t>
+          <t>PSTVA8729</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1,S2,S3,S4</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -4776,7 +4772,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PSTVA8731</t>
+          <t>PSTVA8730</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4789,7 +4785,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>PSTVA8732</t>
+          <t>PSTVA8731</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4802,7 +4798,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PSTVA8733</t>
+          <t>PSTVA8732</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4815,7 +4811,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>PSTVA8739</t>
+          <t>PSTVA8733</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4828,7 +4824,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>PSTVA8770</t>
+          <t>PSTVA8739</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4841,7 +4837,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>PSTVA8771</t>
+          <t>PSTVA8770</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4854,12 +4850,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PSTVA9630</t>
+          <t>PSTVA8771</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -4867,7 +4863,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>PSTVA9631</t>
+          <t>PSTVA9630</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4880,7 +4876,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>PSTVA9632</t>
+          <t>PSTVA9631</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4893,12 +4889,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>PSTVA9666</t>
+          <t>PSTVA9632</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -4906,12 +4902,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>PSTVA9670</t>
+          <t>PSTVA9666</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>S1,S2,S3</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -4919,12 +4915,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>PSTVA9731</t>
+          <t>PSTVA9670</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>S1,S2,S3</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -4932,12 +4928,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>PSTVA9732</t>
+          <t>PSTVA9731</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>M0,S1,S2</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -4945,12 +4941,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>PSTVA9733</t>
+          <t>PSTVA9732</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>S1,S2</t>
+          <t>M0,S1,S2</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -4958,7 +4954,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>PSTVA9735</t>
+          <t>PSTVA9733</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4971,12 +4967,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>PSTVA9770</t>
+          <t>PSTVA9735</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>M0,S1,S2</t>
+          <t>S1,S2</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -4984,7 +4980,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>PSTVA9771</t>
+          <t>PSTVA9770</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4997,15 +4993,28 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
+          <t>PSTVA9771</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>M0,S1,S2</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
           <t>PSTVA9772</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>M0,S1,S2</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>M0,S1,S2</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
